--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgg-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgg-Itgb1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>207.648940587744</v>
+        <v>112.6552551796749</v>
       </c>
       <c r="R2">
-        <v>1868.840465289696</v>
+        <v>1013.897296617074</v>
       </c>
       <c r="S2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="T2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
         <v>196.2085209736787</v>
@@ -632,10 +632,10 @@
         <v>1765.876688763108</v>
       </c>
       <c r="S3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="T3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>230.1245182448929</v>
+        <v>242.3914262272542</v>
       </c>
       <c r="R4">
-        <v>2071.120664204036</v>
+        <v>2181.522836045288</v>
       </c>
       <c r="S4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="T4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
     </row>
   </sheetData>
